--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>162</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>162</v>
-      </c>
-      <c r="M4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>92.03636363636328</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.653117028874675</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.183124171002993</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68.63636363636327</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.653117028874675</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2016,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.183124171002993</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.515999999999604</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>188.690909090909</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1252525252524</v>
+        <v>168.9939393939393</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9939393939393</v>
+        <v>155.8626262626261</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.731313131313</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.4699999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>170.7839999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>191.3759999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>214.5419999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>260.8739999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>322.65</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>467.8199999999997</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>529.5959999999997</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>583.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>629.9819999999995</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>640.4080808080807</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>608.8929292929292</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>392.2262626262625</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.4383838383837</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.9131313131312</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.5191919191918</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>168.9939393939393</v>
+        <v>182.1252525252524</v>
       </c>
       <c r="C3" t="n">
         <v>162.4282828282827</v>
@@ -2572,67 +2446,67 @@
         <v>149.2969696969696</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>170.7839999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>232.5599999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>232.5599999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>325.2239999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>405.0179999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>405.0179999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>405.6645858585858</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>428.8305858585858</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>454.5705858585858</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>485.4585858585858</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>464.4484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.1353535353534</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.1353535353534</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.1353535353534</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>254.3474747474746</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>254.3474747474746</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>214.9535353535352</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155.8626262626261</v>
+        <v>168.9939393939393</v>
       </c>
       <c r="C4" t="n">
         <v>149.2969696969696</v>
@@ -2649,67 +2523,67 @@
         <v>149.2969696969696</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>139.8959999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>139.8959999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>211.9679999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>211.9679999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>294.3359999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>300.4572929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>341.6412929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.884000000000396</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.06239999997</v>
+        <v>76326.84612799998</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="D2" t="n">
-        <v>9324.258028405267</v>
+        <v>9307.780929750721</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>2375</v>
       </c>
       <c r="F2" t="n">
-        <v>33563.04317621189</v>
+        <v>33385.14722637499</v>
       </c>
     </row>
   </sheetData>
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1421,7 +1421,7 @@
         <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>92.03636363636328</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
         <v>104</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>62.4</v>
@@ -1498,13 +1498,13 @@
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>73.45311702887469</v>
       </c>
       <c r="N3" t="n">
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0.653117028874675</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>52</v>
@@ -1569,19 +1569,19 @@
         <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.98312417100301</v>
       </c>
       <c r="L4" t="n">
         <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.183124171002993</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>41.6</v>
@@ -1590,7 +1590,7 @@
         <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>68.63636363636327</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
         <v>78</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>62.4</v>
@@ -1822,13 +1822,13 @@
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>50.05311702887467</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.653117028874675</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>23.4</v>
@@ -1893,19 +1893,19 @@
         <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.98312417100301</v>
       </c>
       <c r="L4" t="n">
         <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.183124171002993</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>41.6</v>
@@ -1914,7 +1914,7 @@
         <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.515999999999604</v>
+        <v>9.048519999999844</v>
       </c>
       <c r="T2" t="n">
         <v>31.2</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.690909090909</v>
+        <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939393</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626261</v>
+        <v>156.6626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>142.731313131313</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>142.4699999999999</v>
+        <v>143.27</v>
       </c>
       <c r="H2" t="n">
-        <v>170.7839999999999</v>
+        <v>171.584</v>
       </c>
       <c r="I2" t="n">
-        <v>191.3759999999999</v>
+        <v>192.176</v>
       </c>
       <c r="J2" t="n">
-        <v>214.5419999999999</v>
+        <v>215.342</v>
       </c>
       <c r="K2" t="n">
-        <v>260.8739999999999</v>
+        <v>261.674</v>
       </c>
       <c r="L2" t="n">
-        <v>322.65</v>
+        <v>323.45</v>
       </c>
       <c r="M2" t="n">
-        <v>390.6</v>
+        <v>392.948</v>
       </c>
       <c r="N2" t="n">
-        <v>467.8199999999997</v>
+        <v>470.168</v>
       </c>
       <c r="O2" t="n">
-        <v>529.5959999999997</v>
+        <v>531.944</v>
       </c>
       <c r="P2" t="n">
-        <v>583.65</v>
+        <v>585.9979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>629.9819999999995</v>
+        <v>632.3299999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>650.348</v>
       </c>
       <c r="S2" t="n">
-        <v>640.4080808080807</v>
+        <v>641.2080808080809</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929292</v>
+        <v>609.6929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262625</v>
+        <v>393.0262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383837</v>
+        <v>314.2383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131312</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191918</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252524</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282827</v>
+        <v>163.2282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>170.7839999999999</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>232.5599999999999</v>
+        <v>192.176</v>
       </c>
       <c r="K3" t="n">
-        <v>232.5599999999999</v>
+        <v>192.176</v>
       </c>
       <c r="L3" t="n">
-        <v>325.2239999999999</v>
+        <v>284.84</v>
       </c>
       <c r="M3" t="n">
-        <v>405.0179999999999</v>
+        <v>334.3925858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>405.0179999999999</v>
+        <v>334.3925858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>405.6645858585858</v>
+        <v>406.4645858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>428.8305858585858</v>
+        <v>429.6305858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.5705858585858</v>
+        <v>455.3705858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585858</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484848</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353534</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353534</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353534</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474746</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474746</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535352</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939393</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969696</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>139.8959999999999</v>
+        <v>140.696</v>
       </c>
       <c r="K4" t="n">
-        <v>139.8959999999999</v>
+        <v>180.279292929293</v>
       </c>
       <c r="L4" t="n">
-        <v>211.9679999999999</v>
+        <v>252.351292929293</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9679999999999</v>
+        <v>311.553292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>294.3359999999999</v>
+        <v>311.553292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>300.4572929292929</v>
+        <v>311.553292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>341.6412929292929</v>
+        <v>352.7372929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.2332929292929</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161615</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161615</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161615</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161615</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161615</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.884000000000396</v>
+        <v>1.351480000000159</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76326.84612799998</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>9307.780929750721</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2375</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>33385.14722637499</v>
+        <v>36153.72110533932</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1489,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>73.45311702887469</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.98312417100301</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>17.6</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>57.33427201306115</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.05311702887467</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>88.2307927762477</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>39.98312417100301</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.048519999999844</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>143.27</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>171.584</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>192.176</v>
+        <v>213.852</v>
       </c>
       <c r="J2" t="n">
-        <v>215.342</v>
+        <v>362.352</v>
       </c>
       <c r="K2" t="n">
-        <v>261.674</v>
+        <v>362.352</v>
       </c>
       <c r="L2" t="n">
-        <v>323.45</v>
+        <v>362.352</v>
       </c>
       <c r="M2" t="n">
-        <v>392.948</v>
+        <v>362.352</v>
       </c>
       <c r="N2" t="n">
-        <v>470.168</v>
+        <v>510.852</v>
       </c>
       <c r="O2" t="n">
-        <v>531.944</v>
+        <v>510.852</v>
       </c>
       <c r="P2" t="n">
-        <v>585.9979999999999</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.3299999999999</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>650.348</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>641.2080808080809</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383839</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>268.5</v>
       </c>
       <c r="J3" t="n">
-        <v>192.176</v>
+        <v>268.5</v>
       </c>
       <c r="K3" t="n">
-        <v>192.176</v>
+        <v>268.5</v>
       </c>
       <c r="L3" t="n">
-        <v>284.84</v>
+        <v>268.5</v>
       </c>
       <c r="M3" t="n">
-        <v>334.3925858585859</v>
+        <v>268.5</v>
       </c>
       <c r="N3" t="n">
-        <v>334.3925858585859</v>
+        <v>268.5</v>
       </c>
       <c r="O3" t="n">
-        <v>406.4645858585859</v>
+        <v>337.8</v>
       </c>
       <c r="P3" t="n">
-        <v>429.6305858585859</v>
+        <v>337.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>455.3705858585859</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585859</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>140.696</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>180.279292929293</v>
+        <v>149.7</v>
       </c>
       <c r="L4" t="n">
-        <v>252.351292929293</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="M4" t="n">
-        <v>311.553292929293</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>311.553292929293</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>311.553292929293</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>352.7372929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3292929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3050,19 +3050,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>85.93427201306116</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.351480000000159</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3118,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>65.2307927762477</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3380,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3692,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>36153.72110533932</v>
+        <v>35086.17445161043</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.58312417100181</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>17.6</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23.53427201306108</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>30</v>
+      </c>
+      <c r="P2" t="n">
         <v>150</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>150</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>57.33427201306115</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>150</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>47.83079277624766</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.2307927762477</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>125.3831241710019</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.1831241710018</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>213.852</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>362.352</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>362.352</v>
+        <v>225.5679292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>362.352</v>
+        <v>258.8319292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>362.352</v>
+        <v>296.2539292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>510.852</v>
+        <v>337.8339292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>510.852</v>
+        <v>367.5339292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>567.6129292929305</v>
+        <v>516.0339292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.6129292929305</v>
+        <v>537.4179292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>567.6129292929305</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>268.5</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>268.5</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>268.5</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>268.5</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>268.5</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>268.5</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>337.8</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>337.8</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>425.1484848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>149.7</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>273.8292929292919</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>273.8292929292919</v>
+        <v>214.8252929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>273.8292929292919</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>273.8292929292919</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>1.934272013061083</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>85.93427201306116</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3443,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.2307927762476609</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.2307927762477</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3773,16 +3773,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4017,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>124.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>125.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>35086.17445161044</v>
+        <v>-80.19612541331871</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.33427201305675</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.63079277624771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>139.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142.572</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>144.354</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>165.738</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>277.4100000000043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>314.8320000000043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>454.4220000000043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>484.1220000000043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>509.6640000000044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>531.0480000000043</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>571.9689292929305</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>571.9689292929305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>317.6767676767665</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>297.9797979797976</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>265.1515151515148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>265.1515151515148</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>292.0795151515148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>332.4715151515148</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>386.3275151515148</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>446.9155151515148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>491.0695151515148</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>519.1855151515148</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>566.3095151515148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>571.6555151515148</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>579.5755151515148</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>389.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>389.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.5050505050494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.474</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3631,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.13427201305677</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3708,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2307927762477142</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3937,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4285,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>-80.19612541331871</v>
+        <v>35086.17445161043</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.58312417100181</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>23.53427201306108</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.83079277624766</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.1831241710018</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>225.5679292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>258.8319292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>296.2539292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>337.8339292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>367.5339292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>516.0339292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>537.4179292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8252929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.934272013061083</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.2307927762476609</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>124.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>35086.17445161043</v>
+        <v>33360.12825224951</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>37.58312417100181</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>30.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.53427201306108</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>37.6342720130595</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.9</v>
+        <v>19.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>41.23079277624769</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>138</v>
       </c>
       <c r="O3" t="n">
-        <v>47.83079277624766</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>33</v>
+      </c>
+      <c r="S3" t="n">
         <v>8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4.383124171001777</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>14.1831241710018</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>62</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>82</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.0909090909112</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>159.3939393939422</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.2626262626284</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313145</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.1730000000006</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>202.3680000000006</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>202.3680000000006</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>202.3680000000006</v>
       </c>
       <c r="K2" t="n">
-        <v>225.5679292929304</v>
+        <v>202.3680000000006</v>
       </c>
       <c r="L2" t="n">
-        <v>258.8319292929305</v>
+        <v>202.3680000000006</v>
       </c>
       <c r="M2" t="n">
-        <v>296.2539292929305</v>
+        <v>350.8680000000014</v>
       </c>
       <c r="N2" t="n">
-        <v>337.8339292929305</v>
+        <v>499.3680000000022</v>
       </c>
       <c r="O2" t="n">
-        <v>367.5339292929305</v>
+        <v>536.6259292929311</v>
       </c>
       <c r="P2" t="n">
-        <v>516.0339292929305</v>
+        <v>536.6259292929311</v>
       </c>
       <c r="Q2" t="n">
-        <v>537.4179292929305</v>
+        <v>536.6259292929311</v>
       </c>
       <c r="R2" t="n">
-        <v>585.8289292929304</v>
+        <v>556.3269292929311</v>
       </c>
       <c r="S2" t="n">
-        <v>585.8289292929304</v>
+        <v>599.2929292929311</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>599.2929292929311</v>
       </c>
       <c r="U2" t="n">
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>382.6262626262652</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>303.8383838383857</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>251.3131313131339</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.919191919194</v>
       </c>
     </row>
     <row r="3">
@@ -2762,19 +2762,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>172.5252525252524</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>152.8282828282834</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -2783,55 +2783,55 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>160.8184848484858</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>226.1584848484858</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>234.0784848484858</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>242.9884848484858</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>242.9884848484858</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>379.6084848484858</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>386.5384848484858</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>386.5384848484858</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>414.2584848484858</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>446.9284848484858</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>454.8484848484858</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353545</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353545</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353545</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.747474747475</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.747474747475</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>205.3535353535352</v>
       </c>
     </row>
     <row r="4">
@@ -2839,19 +2839,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>159.3939393939385</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969696</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>
@@ -2863,49 +2863,49 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>150.6900000000006</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>155.0292929292924</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>161.9592929292924</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8252929292918</v>
+        <v>161.9592929292924</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>169.8792929292924</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>176.8092929292924</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>220.3692929292924</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>281.7492929292924</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292924</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292924</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161611</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161611</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161611</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161611</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161611</v>
       </c>
       <c r="Y4" t="n">
         <v>192.2222222222222</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.934272013061083</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2307927762476609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>37.23079277624769</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3776,16 +3776,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3831241710017768</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4014,28 +4014,28 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>164.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>59.83427201305955</v>
       </c>
       <c r="P2" t="n">
-        <v>124.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>80569.8755514737</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177227</v>
+        <v>15404.58112947644</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F2" t="n">
-        <v>33360.12825224951</v>
+        <v>34144.99440683344</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>4.472278338914289</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O2" t="n">
-        <v>37.6342720130595</v>
+        <v>97.8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>19.9</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.23079277624769</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>36.75715743291541</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>4.383124171001777</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44</v>
-      </c>
       <c r="Q4" t="n">
-        <v>62</v>
+        <v>8.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>82</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909112</v>
+        <v>211.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939422</v>
+        <v>191.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626284</v>
+        <v>178.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313145</v>
+        <v>165.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G2" t="n">
-        <v>172.1730000000006</v>
+        <v>175.859</v>
       </c>
       <c r="H2" t="n">
-        <v>202.3680000000006</v>
+        <v>230.012</v>
       </c>
       <c r="I2" t="n">
-        <v>202.3680000000006</v>
+        <v>260.702</v>
       </c>
       <c r="J2" t="n">
-        <v>202.3680000000006</v>
+        <v>293.669</v>
       </c>
       <c r="K2" t="n">
-        <v>202.3680000000006</v>
+        <v>380.393</v>
       </c>
       <c r="L2" t="n">
-        <v>202.3680000000006</v>
+        <v>393.857</v>
       </c>
       <c r="M2" t="n">
-        <v>350.8680000000014</v>
+        <v>398.2845555555251</v>
       </c>
       <c r="N2" t="n">
-        <v>499.3680000000022</v>
+        <v>549.7545555555251</v>
       </c>
       <c r="O2" t="n">
-        <v>536.6259292929311</v>
+        <v>646.5765555555251</v>
       </c>
       <c r="P2" t="n">
-        <v>536.6259292929311</v>
+        <v>646.5765555555251</v>
       </c>
       <c r="Q2" t="n">
-        <v>536.6259292929311</v>
+        <v>733.3005555555251</v>
       </c>
       <c r="R2" t="n">
-        <v>556.3269292929311</v>
+        <v>757.5555555555555</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929311</v>
+        <v>718.5656565656577</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929311</v>
+        <v>631.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262652</v>
+        <v>414.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838383857</v>
+        <v>335.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131339</v>
+        <v>283.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.919191919194</v>
+        <v>243.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252524</v>
+        <v>204.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282834</v>
+        <v>184.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I3" t="n">
-        <v>160.8184848484858</v>
+        <v>171.008</v>
       </c>
       <c r="J3" t="n">
-        <v>226.1584848484858</v>
+        <v>182.888</v>
       </c>
       <c r="K3" t="n">
-        <v>234.0784848484858</v>
+        <v>219.2775858585863</v>
       </c>
       <c r="L3" t="n">
-        <v>242.9884848484858</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="M3" t="n">
-        <v>242.9884848484858</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="N3" t="n">
-        <v>379.6084848484858</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="O3" t="n">
-        <v>386.5384848484858</v>
+        <v>402.4275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>386.5384848484858</v>
+        <v>439.5525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>414.2584848484858</v>
+        <v>483.1125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>446.9284848484858</v>
+        <v>547.8585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484858</v>
+        <v>486.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353545</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353545</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353545</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.747474747475</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.747474747475</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535352</v>
+        <v>237.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939385</v>
+        <v>191.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969696</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="J4" t="n">
-        <v>150.6900000000006</v>
+        <v>170.81</v>
       </c>
       <c r="K4" t="n">
-        <v>155.0292929292924</v>
+        <v>178.73</v>
       </c>
       <c r="L4" t="n">
-        <v>161.9592929292924</v>
+        <v>192.59</v>
       </c>
       <c r="M4" t="n">
-        <v>161.9592929292924</v>
+        <v>192.59</v>
       </c>
       <c r="N4" t="n">
-        <v>169.8792929292924</v>
+        <v>343.0699999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>176.8092929292924</v>
+        <v>356.9299999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>220.3692929292924</v>
+        <v>364.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>281.7492929292924</v>
+        <v>373.3472929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292924</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292924</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161611</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161611</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161611</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161611</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161611</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>224.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37.23079277624769</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3831241710017768</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,46 +3996,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="M2" t="n">
-        <v>164.4</v>
+        <v>10.7722783389143</v>
       </c>
       <c r="N2" t="n">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="O2" t="n">
-        <v>59.83427201305955</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,34 +4079,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20.75715743291541</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="N3" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>4.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.933761861034569</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.8755514737</v>
+        <v>80459.32568105296</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>15404.58112947644</v>
+        <v>16076.70532118703</v>
       </c>
       <c r="E2" t="n">
-        <v>1100</v>
+        <v>2235</v>
       </c>
       <c r="F2" t="n">
-        <v>34144.99440683344</v>
+        <v>32157.37403794994</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>35.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>26.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>34.9444750535652</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>29.6</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="L2" t="n">
-        <v>13.6</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>4.472278338914289</v>
+        <v>63.7</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>97.8</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>49.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.23376186103457</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>36.75715743291541</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>171</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>37.5</v>
+        <v>6.344475053564832</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>47.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>25.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>11.3</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>90.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>44.99999999999928</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.0909090909106</v>
+        <v>154.5656565656565</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393939416</v>
+        <v>141.9393939393939</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262626277</v>
+        <v>135.8787878787878</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131313139</v>
+        <v>129.8181818181818</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>123.7575757575757</v>
       </c>
       <c r="G2" t="n">
-        <v>175.859</v>
+        <v>140.5875757575757</v>
       </c>
       <c r="H2" t="n">
-        <v>230.012</v>
+        <v>169.8915757575757</v>
       </c>
       <c r="I2" t="n">
-        <v>260.702</v>
+        <v>189.9885757575757</v>
       </c>
       <c r="J2" t="n">
-        <v>293.669</v>
+        <v>211.1745757575757</v>
       </c>
       <c r="K2" t="n">
-        <v>380.393</v>
+        <v>254.0415757575757</v>
       </c>
       <c r="L2" t="n">
-        <v>393.857</v>
+        <v>310.8675757575757</v>
       </c>
       <c r="M2" t="n">
-        <v>398.2845555555251</v>
+        <v>373.9305757575757</v>
       </c>
       <c r="N2" t="n">
-        <v>549.7545555555251</v>
+        <v>443.2305757575757</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5765555555251</v>
+        <v>498.5715757575757</v>
       </c>
       <c r="P2" t="n">
-        <v>646.5765555555251</v>
+        <v>547.6755757575758</v>
       </c>
       <c r="Q2" t="n">
-        <v>733.3005555555251</v>
+        <v>590.477</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555555555</v>
+        <v>608</v>
       </c>
       <c r="S2" t="n">
-        <v>718.5656565656577</v>
+        <v>596.5858585858585</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292929305</v>
+        <v>532.3434343434343</v>
       </c>
       <c r="U2" t="n">
-        <v>513.1111111111111</v>
+        <v>421.2323232323232</v>
       </c>
       <c r="V2" t="n">
-        <v>414.6262626262645</v>
+        <v>329.8181818181818</v>
       </c>
       <c r="W2" t="n">
-        <v>335.838383838385</v>
+        <v>258.10101010101</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313131332</v>
+        <v>212.6464646464646</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919191934</v>
+        <v>180.3232323232322</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204.5252525252518</v>
+        <v>174.1252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>184.8282828282828</v>
+        <v>154.4282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I3" t="n">
-        <v>171.008</v>
+        <v>121.6</v>
       </c>
       <c r="J3" t="n">
-        <v>182.888</v>
+        <v>174.466</v>
       </c>
       <c r="K3" t="n">
-        <v>219.2775858585863</v>
+        <v>244.954</v>
       </c>
       <c r="L3" t="n">
-        <v>388.5675858585863</v>
+        <v>324.253</v>
       </c>
       <c r="M3" t="n">
-        <v>388.5675858585863</v>
+        <v>389.1970000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>388.5675858585863</v>
+        <v>433.9450000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>402.4275858585863</v>
+        <v>495.6220000000004</v>
       </c>
       <c r="P3" t="n">
-        <v>439.5525858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="Q3" t="n">
-        <v>483.1125858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="R3" t="n">
-        <v>547.8585858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="S3" t="n">
-        <v>486.8484848484852</v>
+        <v>456.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.3535353535346</v>
+        <v>206.9535353535354</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.3939393939379</v>
+        <v>160.9939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="J4" t="n">
-        <v>170.81</v>
+        <v>121.6</v>
       </c>
       <c r="K4" t="n">
-        <v>178.73</v>
+        <v>123.3652929292926</v>
       </c>
       <c r="L4" t="n">
-        <v>192.59</v>
+        <v>185.0422929292926</v>
       </c>
       <c r="M4" t="n">
-        <v>192.59</v>
+        <v>232.364292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>343.0699999999999</v>
+        <v>302.852292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>356.9299999999999</v>
+        <v>364.529292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>364.85</v>
+        <v>364.529292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3472929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222222222</v>
+        <v>193.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3369,19 +3369,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,28 +3996,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.7722783389143</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4026,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20.75715743291541</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>35086.17445161043</v>
+        <v>35086.17445161044</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1900,10 +2150,10 @@
         <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>37.58312417100181</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
         <v>47.6</v>
@@ -2052,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
         <v>14.2</v>
@@ -2064,34 +2314,34 @@
         <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>23.53427201306108</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>112.8</v>
       </c>
       <c r="M2" t="n">
         <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
         <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.9</v>
+        <v>41.33427201305675</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>27.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2153,7 +2403,7 @@
         <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>47.83079277624766</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
         <v>5.4</v>
@@ -2162,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>20.63079277624771</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2224,10 +2474,10 @@
         <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>14.1831241710018</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
         <v>47.6</v>
@@ -2700,43 +2950,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>125.742</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>139.8</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>142.572</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>144.354</v>
       </c>
       <c r="K2" t="n">
-        <v>225.5679292929304</v>
+        <v>165.738</v>
       </c>
       <c r="L2" t="n">
-        <v>258.8319292929305</v>
+        <v>277.4100000000043</v>
       </c>
       <c r="M2" t="n">
-        <v>296.2539292929305</v>
+        <v>314.8320000000043</v>
       </c>
       <c r="N2" t="n">
-        <v>337.8339292929305</v>
+        <v>454.4220000000043</v>
       </c>
       <c r="O2" t="n">
-        <v>367.5339292929305</v>
+        <v>484.1220000000043</v>
       </c>
       <c r="P2" t="n">
-        <v>516.0339292929305</v>
+        <v>509.6640000000044</v>
       </c>
       <c r="Q2" t="n">
-        <v>537.4179292929305</v>
+        <v>531.0480000000043</v>
       </c>
       <c r="R2" t="n">
-        <v>585.8289292929304</v>
+        <v>571.9689292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>585.8289292929304</v>
+        <v>571.9689292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2762,76 +3012,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>317.6767676767665</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>297.9797979797976</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>292.0795151515148</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>332.4715151515148</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>386.3275151515148</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>446.9155151515148</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>491.0695151515148</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>519.1855151515148</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>566.3095151515148</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>571.6555151515148</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>579.5755151515148</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>600</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>350.5050505050494</v>
       </c>
     </row>
     <row r="4">
@@ -2872,7 +3122,7 @@
         <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8252929292918</v>
+        <v>231.474</v>
       </c>
       <c r="N4" t="n">
         <v>268.6812929292918</v>
@@ -3360,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.934272013061083</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3381,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.13427201305677</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
         <v>34</v>
@@ -3449,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2307927762476609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3458,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.2307927762477142</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3687,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3705,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4023,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>124.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,16 +523,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>102.6860658999799</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>61.20999999765039</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -564,37 +562,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="3">
@@ -682,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.26149999946745</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -727,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>61.20999999999133</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.20999999999009</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -739,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.87555147066</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15404.58112946607</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>34251.92257405512</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1200,10 +808,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10178</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>5100</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1192.854</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1118.894</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1045.714</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-980.908</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-962.972</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-858.3945</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.948</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-575.7730000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-407.8790000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-487.4485000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-574.9629999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-706.9884999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-918.715</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1107.3065</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1145.065</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1140.474</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1125.004</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1126.504</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1271.194</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1358.38</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1327.2</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1278.566</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1121.972</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1047.624</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-866.38</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-799.25</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-732.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-613.455</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-339.808</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>5.819000000000031</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>160.3890000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>337.7064999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>485.5659999999998</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>431.3124999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>401.2599999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>321.779</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>112.3290000000002</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-184.9945</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-469.722</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-813.3645</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-919.9220000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-936.63</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1088.15</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1180.8</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1156.45</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1113.28</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-962.15</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-891.9000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1132.75</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1069.718</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1006.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-952.222</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-850.9615</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-438.2194999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-171.1839999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>59.95300000000012</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>232.3089999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>181.6070000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>140.4444999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>38.65249999999997</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-211.2305</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-586.6880000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-985.1559999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1245.656</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1239.748</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1249.444</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1403.696</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1497.712</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1476.094</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1434.29</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1285.892</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1217.008</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.9260000000293</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1913.46400000006</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3155.180000000119</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3928.708000000119</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4040.666000000119</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3562.3</v>
       </c>
       <c r="M2" t="n">
-        <v>8.999999999999996</v>
+        <v>2676.814000000118</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1608.12400000006</v>
       </c>
       <c r="O2" t="n">
-        <v>8.999999999999996</v>
+        <v>641.2140000000295</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.35600000000092</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.3400000000074</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5109.356000000235</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>4224.844548719282</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>9.999999999999996</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>2453.15</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>2279.87200000006</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.5020000000148</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.71200000000184</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>458.0100000000149</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2697.170000000118</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5089.598484848707</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6078.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6080.280000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1011.130000000929</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2305,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1137.516000001064</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2579.407000000085</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3520.829000000119</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3553.217500000119</v>
       </c>
       <c r="L2" t="n">
-        <v>99.87227833674979</v>
+        <v>2987.337000000117</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7000000006752</v>
+        <v>1969.825500000118</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>689.4090000000596</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2000000007218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>102.9000000004657</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2347,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-2.369006324443035e-08</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-9.511131793260574e-08</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -2382,37 +1890,37 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4479.356000000235</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>3552.844548719283</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>118.8571574316797</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>1713.95</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1607.872000000055</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.999999999999773</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2433,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.940769968816432e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2456,40 +1964,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2019.290000000256</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4265.558484848706</v>
       </c>
       <c r="J4" t="n">
-        <v>1.999999999985278</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.000000000014722</v>
+        <v>5100</v>
       </c>
       <c r="L4" t="n">
-        <v>39.98312417080339</v>
+        <v>5100</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>174.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.999999999999943</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1070.453999999947</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004655</v>
+        <v>1016.20793410002</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995342</v>
+        <v>984.5040000023496</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995345</v>
+        <v>858.5080000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995345</v>
+        <v>962.9719999999215</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>176.4684999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>343.6924999999707</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1002.309000000005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1018.074000000002</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1002.603999999852</v>
       </c>
       <c r="S2" t="n">
-        <v>38.59999999974389</v>
+        <v>1004.103999999948</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1148.793999999998</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1235.98</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1204.799999979629</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1156.165999999997</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>999.5719999073655</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>925.2239999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.49999999999994</v>
+        <v>866.38</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004661</v>
+        <v>799.25</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995345</v>
+        <v>732.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>308.1149999992567</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004655</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>212.8624999999851</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>879.2099999999983</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881218</v>
+        <v>936.63</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1088.15</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1180.8</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1156.45</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1113.28</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>962.15</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997669</v>
+        <v>891.9000000694078</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1132.75</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>990.4565000005326</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1006.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>952.2219999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>392.9514999999851</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1245.656000000136</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1178.538000000009</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1188.234000000008</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1403.696</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1497.712</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1353.693999999775</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1311.889999999948</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1285.892</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1217.008</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>213.5353535355891</v>
+        <v>8119.050943536577</v>
       </c>
       <c r="C2" t="n">
-        <v>193.8383838385723</v>
+        <v>7092.578282829485</v>
       </c>
       <c r="D2" t="n">
-        <v>180.7070707073062</v>
+        <v>6098.129797979798</v>
       </c>
       <c r="E2" t="n">
-        <v>167.5757575760401</v>
+        <v>5230.95</v>
       </c>
       <c r="F2" t="n">
-        <v>154.444444444774</v>
+        <v>4258.251010099841</v>
       </c>
       <c r="G2" t="n">
-        <v>154.444444444774</v>
+        <v>4080</v>
       </c>
       <c r="H2" t="n">
-        <v>154.444444444774</v>
+        <v>5206.140839999884</v>
       </c>
       <c r="I2" t="n">
-        <v>154.444444444774</v>
+        <v>7759.753769999968</v>
       </c>
       <c r="J2" t="n">
-        <v>154.444444444774</v>
+        <v>11245.37448000009</v>
       </c>
       <c r="K2" t="n">
-        <v>154.444444444774</v>
+        <v>14763.0598050002</v>
       </c>
       <c r="L2" t="n">
-        <v>253.3179999981563</v>
+        <v>17720.5234350002</v>
       </c>
       <c r="M2" t="n">
-        <v>389.6409999988248</v>
+        <v>19670.65068000044</v>
       </c>
       <c r="N2" t="n">
-        <v>541.1109999988248</v>
+        <v>20353.1655900005</v>
       </c>
       <c r="O2" t="n">
-        <v>658.1289999995394</v>
+        <v>20006.00144858639</v>
       </c>
       <c r="P2" t="n">
-        <v>760</v>
+        <v>18993.56811525305</v>
       </c>
       <c r="Q2" t="n">
-        <v>760</v>
+        <v>17965.21053949547</v>
       </c>
       <c r="R2" t="n">
-        <v>760</v>
+        <v>16952.4792263643</v>
       </c>
       <c r="S2" t="n">
-        <v>721.01010101036</v>
+        <v>15938.23276171714</v>
       </c>
       <c r="T2" t="n">
-        <v>633.7373737376328</v>
+        <v>14777.83478191871</v>
       </c>
       <c r="U2" t="n">
-        <v>515.5555555557676</v>
+        <v>13529.37013545406</v>
       </c>
       <c r="V2" t="n">
-        <v>417.0707070709191</v>
+        <v>12312.40043848482</v>
       </c>
       <c r="W2" t="n">
-        <v>338.2828282830873</v>
+        <v>11144.55599403966</v>
       </c>
       <c r="X2" t="n">
-        <v>285.7575757577878</v>
+        <v>10134.88730717289</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.3636363638719</v>
+        <v>9200.31761020319</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416.6666666679371</v>
+        <v>5938.853535352139</v>
       </c>
       <c r="C3" t="n">
-        <v>396.9696969709203</v>
+        <v>5131.530303028911</v>
       </c>
       <c r="D3" t="n">
-        <v>383.8383838396542</v>
+        <v>4391.227272725882</v>
       </c>
       <c r="E3" t="n">
-        <v>383.8383838396542</v>
+        <v>4080</v>
       </c>
       <c r="F3" t="n">
-        <v>383.8383838396542</v>
+        <v>4080</v>
       </c>
       <c r="G3" t="n">
-        <v>364.1414141426375</v>
+        <v>4080</v>
       </c>
       <c r="H3" t="n">
-        <v>364.1414141426375</v>
+        <v>8514.562440000233</v>
       </c>
       <c r="I3" t="n">
-        <v>372.0614141426375</v>
+        <v>8514.562440000233</v>
       </c>
       <c r="J3" t="n">
-        <v>378.0014141426375</v>
+        <v>12031.87854323232</v>
       </c>
       <c r="K3" t="n">
-        <v>385.9214141426375</v>
+        <v>12031.87854323232</v>
       </c>
       <c r="L3" t="n">
-        <v>546.3014141426374</v>
+        <v>12031.87854323232</v>
       </c>
       <c r="M3" t="n">
-        <v>663.9700000000004</v>
+        <v>12031.87854323232</v>
       </c>
       <c r="N3" t="n">
-        <v>747.1300000000003</v>
+        <v>12031.87854323232</v>
       </c>
       <c r="O3" t="n">
-        <v>754.0600000000003</v>
+        <v>13728.68904323232</v>
       </c>
       <c r="P3" t="n">
-        <v>754.0600000000003</v>
+        <v>15320.48232323238</v>
       </c>
       <c r="Q3" t="n">
-        <v>754.0600000000003</v>
+        <v>15105.4696969697</v>
       </c>
       <c r="R3" t="n">
-        <v>760</v>
+        <v>14217.37878787879</v>
       </c>
       <c r="S3" t="n">
-        <v>698.9898989910988</v>
+        <v>13271.28787878788</v>
       </c>
       <c r="T3" t="n">
-        <v>567.6767676779675</v>
+        <v>12172.14646464646</v>
       </c>
       <c r="U3" t="n">
-        <v>567.6767676779675</v>
+        <v>10979.41919191919</v>
       </c>
       <c r="V3" t="n">
-        <v>567.6767676779675</v>
+        <v>9811.287878787878</v>
       </c>
       <c r="W3" t="n">
-        <v>488.8888888901357</v>
+        <v>8686.762626262625</v>
       </c>
       <c r="X3" t="n">
-        <v>488.8888888901357</v>
+        <v>7714.893939393938</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.4949494962199</v>
+        <v>6813.984848483453</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.3939393940189</v>
+        <v>7455.484848484903</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696970022</v>
+        <v>6455.023737373253</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696970022</v>
+        <v>5438.761111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696970022</v>
+        <v>4476.920707070223</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696970022</v>
+        <v>4080</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>6079.097099999784</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>6079.097099999784</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
+        <v>10302</v>
       </c>
       <c r="J4" t="n">
-        <v>153.9799999999854</v>
+        <v>10302</v>
       </c>
       <c r="K4" t="n">
-        <v>161.9</v>
+        <v>15351</v>
       </c>
       <c r="L4" t="n">
-        <v>201.4832929290954</v>
+        <v>20400</v>
       </c>
       <c r="M4" t="n">
-        <v>201.4832929290954</v>
+        <v>20400</v>
       </c>
       <c r="N4" t="n">
-        <v>374.1392929293489</v>
+        <v>20400</v>
       </c>
       <c r="O4" t="n">
-        <v>381.0692929293489</v>
+        <v>20400</v>
       </c>
       <c r="P4" t="n">
-        <v>388.9892929293489</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="n">
-        <v>392.9492929293489</v>
+        <v>19141.76161616162</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929293489</v>
+        <v>17951.31919191918</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929293489</v>
+        <v>16751.08282828282</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616162177</v>
+        <v>15333.20808080807</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616162177</v>
+        <v>13820.36767676766</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616162177</v>
+        <v>12453</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616162177</v>
+        <v>11127.85858585864</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616162177</v>
+        <v>9828.977777777778</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222223018</v>
+        <v>8599.676767676821</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>139.769</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>297.0700000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>333.3515</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>256.6490000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>111.2795000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6924,22 +6432,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>152.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2571574316797</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.98312417081813</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,43 +6664,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.201000000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>47.81400000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>97.57800000000002</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>127.491</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="L2" t="n">
-        <v>3.872278336470387</v>
+        <v>115.908</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>82.212</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>41.49600000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.680000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.31</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -7331,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3341676.407773767</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>425034.5342805645</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>182250</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>1460367.099014145</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 6.xlsx
+++ b/model/Output Files/Year 6.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>102.6860658999799</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>61.20999999765039</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4</v>
+        <v>111.0000000010414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -562,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>122.4</v>
+        <v>55.85832278496491</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>111.0000000011032</v>
       </c>
       <c r="W2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -680,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>79.26149999946745</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.50999999987629</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>55.50999999999476</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -725,28 +726,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.20999999999133</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.20999999999009</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>80.54499999826115</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.4</v>
+        <v>55.51000000006309</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384608.65373072</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>429913.1799191735</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182940</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1479648.172440716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -808,10 +875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10178</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>5100</v>
+        <v>5230</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,76 +1264,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1192.854</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-1118.894</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-1045.714</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-980.908</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-962.972</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-858.3945</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.948</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-575.7730000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-407.8790000000001</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-487.4485000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-574.9629999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-706.9884999999999</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-918.715</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1107.3065</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
-        <v>-1145.065</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1140.474</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
-        <v>-1125.004</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-1126.504</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-1271.194</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-1358.38</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-1327.2</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-1278.566</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-1121.972</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1047.624</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1224,76 +1341,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-866.38</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-799.25</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-732.9</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-613.455</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-339.808</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>5.819000000000031</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>160.3890000000001</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>337.7064999999999</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>485.5659999999998</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>431.3124999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>401.2599999999999</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>321.779</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>112.3290000000002</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-184.9945</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-469.722</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-813.3645</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
-        <v>-919.9220000000001</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-936.63</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-1088.15</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>-1180.8</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>-1156.45</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-1113.28</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>-962.15</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-891.9000000000001</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1301,76 +1418,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1132.75</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-1069.718</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>-1006.1</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-952.222</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-850.9615</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-438.2194999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-171.1839999999999</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>59.95300000000012</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>232.3089999999999</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>181.6070000000001</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>140.4444999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>38.65249999999997</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-211.2305</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-586.6880000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-985.1559999999999</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1245.656</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>-1239.748</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>-1249.444</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-1403.696</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>-1497.712</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>-1476.094</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>-1434.29</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>-1285.892</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1217.008</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.9260000000293</v>
+        <v>683.8020000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1913.46400000006</v>
+        <v>1918.728000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>3155.180000000119</v>
+        <v>3163.860000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3928.708000000119</v>
+        <v>3939.516000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4040.666000000119</v>
+        <v>4051.782000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3562.3</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2676.814000000118</v>
+        <v>2684.178000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1608.12400000006</v>
+        <v>1612.548</v>
       </c>
       <c r="O2" t="n">
-        <v>641.2140000000295</v>
+        <v>642.9780000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>20.35600000000092</v>
+        <v>20.412</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3400000000074</v>
+        <v>306.1800000000001</v>
       </c>
       <c r="F3" t="n">
         <v>462</v>
@@ -1566,13 +1683,13 @@
         <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>5109.356000000235</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
         <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4224.844548719282</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
         <v>798</v>
@@ -1581,22 +1698,22 @@
         <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>756</v>
+        <v>5986</v>
       </c>
       <c r="N3" t="n">
-        <v>756</v>
+        <v>2164.656306698565</v>
       </c>
       <c r="O3" t="n">
-        <v>2453.15</v>
+        <v>4072.194000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>2279.87200000006</v>
+        <v>2286.144</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.5020000000148</v>
+        <v>602.1540000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>40.71200000000184</v>
+        <v>40.82400000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>458.0100000000149</v>
+        <v>459.2700000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2697.170000000118</v>
+        <v>2704.590000000001</v>
       </c>
       <c r="H4" t="n">
         <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5089.598484848707</v>
+        <v>824.04</v>
       </c>
       <c r="J4" t="n">
-        <v>850.9200000000001</v>
+        <v>850.9200000001196</v>
       </c>
       <c r="K4" t="n">
-        <v>6078.6</v>
+        <v>6208.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6080.280000000001</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>939.1200000000001</v>
+        <v>6169.120000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>5359.140505050505</v>
       </c>
       <c r="O4" t="n">
-        <v>925.6800000000001</v>
+        <v>925.6800000000075</v>
       </c>
       <c r="P4" t="n">
-        <v>1011.130000000929</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1137.516000001064</v>
+        <v>1165.948000000503</v>
       </c>
       <c r="I2" t="n">
-        <v>2579.407000000085</v>
+        <v>2635.190000003214</v>
       </c>
       <c r="J2" t="n">
-        <v>3520.829000000119</v>
+        <v>3595.935999998745</v>
       </c>
       <c r="K2" t="n">
-        <v>3553.217500000119</v>
+        <v>3631.477</v>
       </c>
       <c r="L2" t="n">
-        <v>2987.337000000117</v>
+        <v>3055.23000000142</v>
       </c>
       <c r="M2" t="n">
-        <v>1969.825500000118</v>
+        <v>2016.55300000429</v>
       </c>
       <c r="N2" t="n">
-        <v>689.4090000000596</v>
+        <v>710.8380000014513</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1855,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.369006324443035e-08</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-9.511131793260574e-08</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1872,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-3.975583240389824e-08</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1890,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4479.356000000235</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3552.844548719283</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1905,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5230</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1408.656306698564</v>
       </c>
       <c r="O3" t="n">
-        <v>1713.95</v>
+        <v>3332.994000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>1607.872000000055</v>
+        <v>1614.144</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1941,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.940769968816432e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2019.290000000256</v>
+        <v>2026.71</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4265.558484848706</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5100</v>
+        <v>5230</v>
       </c>
       <c r="L4" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5230</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4418.340505050505</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1070.453999999947</v>
+        <v>1100.509999999942</v>
       </c>
       <c r="C2" t="n">
-        <v>1016.20793410002</v>
+        <v>1025.260000000014</v>
       </c>
       <c r="D2" t="n">
-        <v>984.5040000023496</v>
+        <v>950.8099999999419</v>
       </c>
       <c r="E2" t="n">
-        <v>858.5080000000002</v>
+        <v>920.1699999989587</v>
       </c>
       <c r="F2" t="n">
-        <v>962.9719999999215</v>
+        <v>977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>176.4684999999999</v>
+        <v>64.09299999905693</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>343.6924999999707</v>
+        <v>357.4669999969265</v>
       </c>
       <c r="P2" t="n">
-        <v>1002.309000000005</v>
+        <v>1084.619677214947</v>
       </c>
       <c r="Q2" t="n">
-        <v>1018.074000000002</v>
+        <v>1080.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1002.603999999852</v>
+        <v>1030.46</v>
       </c>
       <c r="S2" t="n">
-        <v>1004.103999999948</v>
+        <v>1033.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1148.793999999998</v>
+        <v>1178.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1235.98</v>
+        <v>1268.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1204.799999979629</v>
+        <v>1235.749999998966</v>
       </c>
       <c r="W2" t="n">
-        <v>1156.165999999997</v>
+        <v>1186.990000000013</v>
       </c>
       <c r="X2" t="n">
-        <v>999.5719999073655</v>
+        <v>1029.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.2239999999999</v>
+        <v>953.4599999999891</v>
       </c>
     </row>
     <row r="3">
@@ -2196,16 +2313,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>866.38</v>
+        <v>879.2999999635432</v>
       </c>
       <c r="C3" t="n">
-        <v>799.25</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>732.9</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>308.1149999992567</v>
+        <v>345.4699999962058</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,31 +2358,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.8624999999851</v>
+        <v>245.1309999986392</v>
       </c>
       <c r="R3" t="n">
-        <v>879.2099999999983</v>
+        <v>891.7360000003647</v>
       </c>
       <c r="S3" t="n">
-        <v>936.63</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1088.15</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1180.8</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1156.45</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1113.28</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>962.15</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>891.9000000694078</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1132.75</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>990.4565000005326</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>1006.1</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>952.2219999999999</v>
+        <v>946.4700000001236</v>
       </c>
       <c r="F4" t="n">
-        <v>392.9514999999851</v>
+        <v>341.4550000000053</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1245.656000000136</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1178.538000000009</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>1188.234000000008</v>
+        <v>1269.110000000011</v>
       </c>
       <c r="T4" t="n">
-        <v>1403.696</v>
+        <v>1344.045000001773</v>
       </c>
       <c r="U4" t="n">
-        <v>1497.712</v>
+        <v>1520.980000000081</v>
       </c>
       <c r="V4" t="n">
-        <v>1353.693999999775</v>
+        <v>1498.260000000456</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.889999999948</v>
+        <v>1400.940000000005</v>
       </c>
       <c r="X4" t="n">
-        <v>1285.892</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1217.008</v>
+        <v>1125.819999999076</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8119.050943536577</v>
+        <v>8197.740404035139</v>
       </c>
       <c r="C2" t="n">
-        <v>7092.578282829485</v>
+        <v>7162.124242418918</v>
       </c>
       <c r="D2" t="n">
-        <v>6098.129797979798</v>
+        <v>6201.71010100571</v>
       </c>
       <c r="E2" t="n">
-        <v>5230.95</v>
+        <v>5272.245454542116</v>
       </c>
       <c r="F2" t="n">
-        <v>4258.251010099841</v>
+        <v>4284.740404037066</v>
       </c>
       <c r="G2" t="n">
-        <v>4080</v>
+        <v>4219.999999998353</v>
       </c>
       <c r="H2" t="n">
-        <v>5206.140839999884</v>
+        <v>5374.288519998851</v>
       </c>
       <c r="I2" t="n">
-        <v>7759.753769999968</v>
+        <v>7983.126620002034</v>
       </c>
       <c r="J2" t="n">
-        <v>11245.37448000009</v>
+        <v>11543.10326000079</v>
       </c>
       <c r="K2" t="n">
-        <v>14763.0598050002</v>
+        <v>15138.26549000079</v>
       </c>
       <c r="L2" t="n">
-        <v>17720.5234350002</v>
+        <v>18162.94319000067</v>
       </c>
       <c r="M2" t="n">
-        <v>19670.65068000044</v>
+        <v>20159.33066000422</v>
       </c>
       <c r="N2" t="n">
-        <v>20353.1655900005</v>
+        <v>20863.06028000566</v>
       </c>
       <c r="O2" t="n">
-        <v>20006.00144858639</v>
+        <v>20501.98250223099</v>
       </c>
       <c r="P2" t="n">
-        <v>18993.56811525305</v>
+        <v>19406.40707070065</v>
       </c>
       <c r="Q2" t="n">
-        <v>17965.21053949547</v>
+        <v>18315.18484847842</v>
       </c>
       <c r="R2" t="n">
-        <v>16952.4792263643</v>
+        <v>17274.31616160974</v>
       </c>
       <c r="S2" t="n">
-        <v>15938.23276171714</v>
+        <v>16230.87171716529</v>
       </c>
       <c r="T2" t="n">
-        <v>14777.83478191871</v>
+        <v>15040.20505049863</v>
       </c>
       <c r="U2" t="n">
-        <v>13529.37013545406</v>
+        <v>13759.19494948852</v>
       </c>
       <c r="V2" t="n">
-        <v>12312.40043848482</v>
+        <v>12510.96262625661</v>
       </c>
       <c r="W2" t="n">
-        <v>11144.55599403966</v>
+        <v>11311.98282827751</v>
       </c>
       <c r="X2" t="n">
-        <v>10134.88730717289</v>
+        <v>10272.45757575225</v>
       </c>
       <c r="Y2" t="n">
-        <v>9200.31761020319</v>
+        <v>9309.366666661343</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5938.853535352139</v>
+        <v>6139.161616161612</v>
       </c>
       <c r="C3" t="n">
-        <v>5131.530303028911</v>
+        <v>5319.969696969697</v>
       </c>
       <c r="D3" t="n">
-        <v>4391.227272725882</v>
+        <v>4568.959595959597</v>
       </c>
       <c r="E3" t="n">
-        <v>4080</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="F3" t="n">
-        <v>4080</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="G3" t="n">
-        <v>4080</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="H3" t="n">
-        <v>8514.562440000233</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="I3" t="n">
-        <v>8514.562440000233</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="J3" t="n">
-        <v>12031.87854323232</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="K3" t="n">
-        <v>12031.87854323232</v>
+        <v>4220.000000003163</v>
       </c>
       <c r="L3" t="n">
-        <v>12031.87854323232</v>
+        <v>4220.000000003411</v>
       </c>
       <c r="M3" t="n">
-        <v>12031.87854323232</v>
+        <v>9397.70000000345</v>
       </c>
       <c r="N3" t="n">
-        <v>12031.87854323232</v>
+        <v>10792.26974363499</v>
       </c>
       <c r="O3" t="n">
-        <v>13728.68904323232</v>
+        <v>14091.93380363499</v>
       </c>
       <c r="P3" t="n">
-        <v>15320.48232323238</v>
+        <v>15689.93636363499</v>
       </c>
       <c r="Q3" t="n">
-        <v>15105.4696969697</v>
+        <v>15442.32929292929</v>
       </c>
       <c r="R3" t="n">
-        <v>14217.37878787879</v>
+        <v>14541.58585858586</v>
       </c>
       <c r="S3" t="n">
-        <v>13271.28787878788</v>
+        <v>13581.18181818182</v>
       </c>
       <c r="T3" t="n">
-        <v>12172.14646464646</v>
+        <v>12466.53535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>10979.41919191919</v>
+        <v>11255.92929292929</v>
       </c>
       <c r="V3" t="n">
-        <v>9811.287878787878</v>
+        <v>10071.08080808045</v>
       </c>
       <c r="W3" t="n">
-        <v>8686.762626262625</v>
+        <v>8929.868686868193</v>
       </c>
       <c r="X3" t="n">
-        <v>7714.893939393938</v>
+        <v>7942.494949494146</v>
       </c>
       <c r="Y3" t="n">
-        <v>6813.984848483453</v>
+        <v>7027.343434342631</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7455.484848484903</v>
+        <v>7613.944444444444</v>
       </c>
       <c r="C4" t="n">
-        <v>6455.023737373253</v>
+        <v>6516.752525252536</v>
       </c>
       <c r="D4" t="n">
-        <v>5438.761111111111</v>
+        <v>5484.934343434354</v>
       </c>
       <c r="E4" t="n">
-        <v>4476.920707070223</v>
+        <v>4528.904040403926</v>
       </c>
       <c r="F4" t="n">
-        <v>4080</v>
+        <v>4184</v>
       </c>
       <c r="G4" t="n">
-        <v>6079.097099999784</v>
+        <v>6190.44289999988</v>
       </c>
       <c r="H4" t="n">
-        <v>6079.097099999784</v>
+        <v>6190.44289999988</v>
       </c>
       <c r="I4" t="n">
-        <v>10302</v>
+        <v>6190.44289999988</v>
       </c>
       <c r="J4" t="n">
-        <v>10302</v>
+        <v>6190.442899999998</v>
       </c>
       <c r="K4" t="n">
-        <v>15351</v>
+        <v>11368.1429</v>
       </c>
       <c r="L4" t="n">
-        <v>20400</v>
+        <v>11368.1429</v>
       </c>
       <c r="M4" t="n">
-        <v>20400</v>
+        <v>16545.8429</v>
       </c>
       <c r="N4" t="n">
-        <v>20400</v>
+        <v>20920</v>
       </c>
       <c r="O4" t="n">
-        <v>20400</v>
+        <v>20920</v>
       </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>20920</v>
       </c>
       <c r="Q4" t="n">
-        <v>19141.76161616162</v>
+        <v>19608.54545454629</v>
       </c>
       <c r="R4" t="n">
-        <v>17951.31919191918</v>
+        <v>18337.616161617</v>
       </c>
       <c r="S4" t="n">
-        <v>16751.08282828282</v>
+        <v>17055.68686868771</v>
       </c>
       <c r="T4" t="n">
-        <v>15333.20808080807</v>
+        <v>15698.06565656474</v>
       </c>
       <c r="U4" t="n">
-        <v>13820.36767676766</v>
+        <v>14161.72222222222</v>
       </c>
       <c r="V4" t="n">
-        <v>12453</v>
+        <v>12648.32828282737</v>
       </c>
       <c r="W4" t="n">
-        <v>11127.85858585864</v>
+        <v>11233.23737373645</v>
       </c>
       <c r="X4" t="n">
-        <v>9828.977777777778</v>
+        <v>9913.106060605138</v>
       </c>
       <c r="Y4" t="n">
-        <v>8599.676767676821</v>
+        <v>8775.914141414152</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>139.769</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>297.0700000000001</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>333.3515</v>
+        <v>349.0949999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>256.6490000000001</v>
+        <v>268.7699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>111.2795000000001</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6664,31 +6781,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.201000000000003</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>47.81400000000001</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>97.57800000000002</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>127.491</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>132.6</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>115.908</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>82.212</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>41.49600000000001</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>4.680000000000001</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.95</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.31</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3341676.407773767</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>425034.5342805645</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>182250</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1460367.099014145</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
